--- a/数据整理/stocks/A股/上证主板/600188-兖矿能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600188-兖矿能源.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2559,7 +2560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2570,17 +2571,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2590,13 +2611,7703 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>181.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.1858</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4602</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1354</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5877</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001832</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达瑞恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.4741</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>040035</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>58.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.2241</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>402.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.1349</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160505</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时主题行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.0755</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>530005</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信优化配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.9844</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.6100</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519008</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富优势精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>28.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5308</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>56.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3046</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>34.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0215</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9653</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000173</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9605</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010385</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>25.38</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8528</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000925</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8434</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011336</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>50.91</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>40.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8349</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>21.53</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7923</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519017</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成积极成长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>17.32</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6963</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>建信信息产业股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6583</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.43</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>78.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6414</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6336</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>540006</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>17.12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5958</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>960000</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘股票H</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>17.12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5958</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010299</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>20.73</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5639</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003624</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5620</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>16.55</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5213</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010981</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>兴全汇虹一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>39.24</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4983</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>217002</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商安泰平衡混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>49.93</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4549</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>13.85</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4335</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011862</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方蓝筹成长混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>15.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4263</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.38</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4098</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>481006</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银红利混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3758</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3577</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011884</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3520</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>60.13</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3367</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001287</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>83.13</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3277</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002317</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商睿逸稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>48.74</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3125</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>481015</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>工银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3062</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>202002</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方稳健成长贰号混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>14.57</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>75.50</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2987</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>240004</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2874</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2836</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010881</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>南方宝顺混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>45.66</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2740</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001667</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方转型增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>18.61</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2680</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014277</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>万家北交所慧选两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>97.90</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2593</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011064</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南方誉享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>41.29</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>21.35</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2560</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2491</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003625</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2388</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>159606</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>易方达中证500质量成长ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2345</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2339</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2319</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>519979</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长信内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2302</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006397</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长信内需成长混合E</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2302</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2244</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>36.91</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2030</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1885</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011746</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>南方誉浦一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>28.28</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>23.37</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1753</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>481017</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>工银量化策略混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1709</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>167001</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>平安鼎泰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1684</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1670</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1558</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>27.79</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>519997</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>长信银利精选混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>80.00</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1533</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1512</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010982</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>兴全汇虹一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1443</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>000585</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>嘉实对冲套利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>49.84</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1321</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>95.88</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1306</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001396</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>建信互联网+产业升级股票</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010386</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1280</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>003434</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>55.24</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1246</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>519095</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>新华行业周期轮换混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1216</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>000739</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1212</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>004517</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>南方安康混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>32.79</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>21.37</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1148</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1146</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>002036</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>83.13</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1137</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>013639</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1122</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001220</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>民生加银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>159758</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华夏中证红利质量ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>161132</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>易方达科顺定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>16.77</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>376510</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>78.54</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>98.06</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>70.60</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>012963</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>64.08</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>010564</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>民生加银瑞利混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>33.06</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>014212</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>博时研究优享混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>60.01</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>161722</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>招商丰泰灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010300</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>南方产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>014014</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>40.88</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011065</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>南方誉享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>21.35</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>006430</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>凯石澜龙头经济定期开放混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>69.36</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>009853</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>中加优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>001334</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>南方利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>22.18</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>011807</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>002293</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>南方益和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>47.85</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>009260</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>民生加银聚利6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>25.62</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>167002</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>平安鼎越灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>85.05</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>560500</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>98.64</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>011885</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>003861</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>95.76</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>010444</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>南方誉尚一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>009967</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>博时荣泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>81.82</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>014278</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>万家北交所慧选两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>97.90</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>001515</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>470021</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>001162</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>96.08</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>012964</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>64.08</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>008091</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>007388</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>003862</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>011863</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>南方蓝筹成长混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>002189</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>农银汇理国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>54.15</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>003125</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>中科沃土沃鑫成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>79.14</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>009854</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>中加优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>014015</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>40.88</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>005953</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>人保转型新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>001503</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>南方利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>22.18</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>011337</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>40.38</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>011808</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>工银瑞信中证500ETF</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>47.85</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>009747</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>中科沃土沃鑫成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>79.14</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>67.47</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>008092</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>011747</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>南方誉浦一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>23.37</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>013640</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>010445</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>南方誉尚一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>003435</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>55.24</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>014213</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>博时研究优享混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>60.01</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>002418</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>519099</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>新华灵活主题混合</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>78.98</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>570006</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>诺德中小盘混合</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>007257</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>凯石沣混合A</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>007389</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>96.76</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>001638</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>010882</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>南方宝顺混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>011424</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>005954</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>人保转型新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>009261</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>民生加银聚利6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>25.62</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>007258</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>凯石沣混合C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>97.63</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>70.60</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>013119</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>010066</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>010067</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>201</v>
+      </c>
+      <c r="D2" t="n">
+        <v>62.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>54</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>27.77</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600188-兖矿能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600188-兖矿能源.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10254,7 +10255,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10265,17 +10266,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10285,14 +10306,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>201</v>
-      </c>
-      <c r="D2" t="n">
-        <v>62.85</v>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>178.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.7029</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -10301,13 +10344,5553 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>63.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.4396</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.0750</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001832</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达瑞恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>35.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.2892</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012406</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>永赢长远价值混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>59.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.8934</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>530005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信优化配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.4494</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.2430</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>43.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.1938</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519008</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富优势精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>32.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.7853</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.6681</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001373</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达新丝路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>43.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5154</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>59.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.4718</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2783</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014967</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0923</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000173</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9900</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>30.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9747</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013919</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9218</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7957</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000925</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>21.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7567</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>540006</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7375</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013275</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6924</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>19.43</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6626</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5483</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003624</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5447</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家精选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4846</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>217002</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商安泰平衡混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>47.79</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4690</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011336</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>21.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>35.61</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4602</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012429</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4510</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009932</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>21.48</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>24.65</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4275</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012442</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合E</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>21.48</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>24.65</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4275</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>162209</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>泰达宏利市值优选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4145</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4117</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>12.91</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4105</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>建信信息产业股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4047</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013049</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3882</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>710001</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富安达优势成长混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3555</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002317</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商睿逸稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>46.28</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3215</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3132</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3104</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001901</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>40.63</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3043</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2894</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>481006</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>工银红利混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2507</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012407</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>永赢长远价值混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2352</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>003625</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2295</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009611</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>兴全汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>16.72</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2224</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2129</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2112</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002430</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中银丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2011</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1751</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001416</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>嘉实事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>12.48</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1747</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013050</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1716</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1704</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1640</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>519095</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>新华行业周期轮换混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1576</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1549</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1489</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009840</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1395</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1393</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001396</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>建信互联网+产业升级股票</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1331</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>014103</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1326</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>84.09</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002616</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中银益利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>29.36</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1236</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>003850</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中银锦利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008682</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1223</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>014277</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>万家北交所慧选两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>68.82</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>014175</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>工银价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1039</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>012963</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>69.04</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>004982</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>新华安享多裕定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>34.25</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>161132</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>易方达科顺定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>98.17</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>014068</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>工银悦享混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>67.35</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>000030</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>长城核心优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001370</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中银新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>37.38</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009841</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>960000</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘股票H</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>014014</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>69.61</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>014135</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中欧金安量化混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>159758</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华夏中证红利质量ETF</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>79.27</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>001162</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>012964</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>69.04</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>015394</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>002431</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中银丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>008736</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>南方高股息主题股票A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>003125</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中科沃土沃鑫成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>009747</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>中科沃土沃鑫成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>009612</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>兴全汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>009853</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>中加优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>013759</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>招商精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>69.61</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>011482</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>中银顺宁回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>011337</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>35.61</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>014015</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>69.61</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>014863</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>建信信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>001485</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华安添颐混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>161722</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>招商丰泰灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>20.18</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>014176</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>工银价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>009854</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>中加优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>008091</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>005290</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>009710</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>014278</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>万家北交所慧选两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>68.82</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>014104</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>014849</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>建信健康民生混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>008092</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>014136</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>中欧金安量化混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>001609</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>平安鑫享混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>003851</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>中银锦利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>001638</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>013760</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>招商精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>69.61</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>570006</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>诺德中小盘混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>002617</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>中银益利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>29.36</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>008300</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>008737</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>南方高股息主题股票C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>014069</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>工银悦享混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>67.35</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>003026</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>安信新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>011424</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>011483</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>中银顺宁回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>001902</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>40.63</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>011987</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>39.43</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>001610</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>平安鑫享混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>015436</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>建信优化配置混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>003027</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>安信新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>008301</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>007925</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>平安鑫享混合E</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>015558</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>万家中证红利指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>011988</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>39.43</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>010066</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>010067</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>145</v>
+      </c>
+      <c r="D2" t="n">
+        <v>61.82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>201</v>
+      </c>
+      <c r="D3" t="n">
+        <v>62.85</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>54</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>27.77</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600188-兖矿能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600188-兖矿能源.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>145</v>
+        <v>216</v>
       </c>
       <c r="D2" t="n">
-        <v>61.82</v>
+        <v>103.11</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>201</v>
+        <v>145</v>
       </c>
       <c r="D3" t="n">
-        <v>62.85</v>
+        <v>61.82</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>201</v>
+      </c>
+      <c r="D4" t="n">
+        <v>62.85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>54</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>27.77</v>
       </c>
     </row>
@@ -532,6 +549,8250 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H217"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>140.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.0288</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.4800</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>180012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华富裕主题混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>170.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8.9736</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>47.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.9354</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>960013</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>匯添富價值精選混合型證券投資基金 O</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>128.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.3359</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519069</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>128.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.3359</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001832</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达瑞恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>41.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.7447</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>37.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.5199</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001938</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>128.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.6044</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>530005</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信优化配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.5937</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519008</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富优势精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>29.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.2690</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>54.79</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.2409</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>750001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>37.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>68.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.1124</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001373</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达新丝路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>41.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.9191</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.8097</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18.95</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.7699</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013919</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.59</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.5727</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>110025</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达资源行业混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.4481</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014967</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.3963</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000173</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>15.36</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.2580</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>166023</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>25.34</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.1859</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>26.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.1182</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000925</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.0835</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>090003</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大成蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13.26</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.0674</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004046</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏新锦顺灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>26.36</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>61.07</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.0043</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013095</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>安信远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>15.88</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>75.84</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.9814</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011790</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>18.42</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.9247</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519018</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富均衡增长混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>33.16</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.9185</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.8972</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.8907</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013275</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.8474</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>建信健康民生混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>18.47</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.7942</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>16.81</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.7632</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>18.69</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.7495</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>960000</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>匯豐晉信大盤股票型證券投資基金 H</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>14.62</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.7427</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000762</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇添富绝对收益策略定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>66.86</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>64.62</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.6485</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004241</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5975</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>217002</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商安泰平衡混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>49.42</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.5959</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012765</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发大盘价值混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>74.06</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5696</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>建信信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.5406</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012098</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华夏成长机会一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>12.65</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.5300</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>162209</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>泰达宏利市值优选混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.5270</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>020003</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国泰金龙行业混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>11.56</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4763</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>970010</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4716</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>710001</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富安达优势成长混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4517</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002317</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商睿逸稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>46.67</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.4080</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>003624</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3801</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3773</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005587</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>安信比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>68.34</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3662</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008682</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3382</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3268</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>519095</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>新华行业周期轮换混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2911</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2798</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>013049</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2755</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2722</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>003625</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2638</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001901</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>38.21</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2533</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>501186</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华夏兴融灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2511</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>481006</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>工银红利混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2482</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001716</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>68.39</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2422</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2278</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001416</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>嘉实事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>10.88</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>80.18</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2241</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>013050</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2172</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>007243</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>62.10</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2143</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>014849</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>建信健康民生混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2034</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012766</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>广发大盘价值混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>74.06</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1923</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1900</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>561300</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国泰沪深300增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>95.25</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1801</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1796</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1725</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>013096</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>安信远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>75.84</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1712</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>014103</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1686</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1662</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1343</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>008140</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>汇添富绝对收益策略定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>64.62</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>006696</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>汇添富研究优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>72.61</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1212</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>013323</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>国寿安保盛泽三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>63.73</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1203</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001796</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>汇添富安鑫智选混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>60.55</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>014068</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>工银悦享混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>62.82</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>002455</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>民生加银鑫喜灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>161132</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>易方达科顺定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>168002</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>014135</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>中欧金安量化混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>78.49</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001396</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>建信互联网+产业升级股票</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>001990</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>82.13</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>007470</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>博道叁佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>009710</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>159758</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华夏中证红利质量ETF</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>014175</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>工银价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>66.94</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>481017</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>工银量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>75.77</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>012963</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>66.03</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>001997</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>68.39</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>004047</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华夏新锦顺灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>61.07</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>005295</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>诺德天富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>万家中证红利指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>013596</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>007471</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>博道叁佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>004740</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>008056</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>南方上证50指数增强A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>97.49</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>012964</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>66.03</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>011376</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>华宝安享混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>001162</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>690008</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>000368</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>汇添富沪深300安中指数</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>008318</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>博道久航混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>008057</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>南方上证50指数增强C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>006160</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>博道启航混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>009853</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>中加优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>001272</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>兴业聚利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>007044</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>博道沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>009854</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>中加优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>014608</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>005294</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>诺德新宜灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>014014</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>66.43</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>530016</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>建信恒稳价值混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>57.67</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>004234</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>82.13</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>013759</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>招商精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>69.21</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>013771</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>中加龙头精选混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>014015</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>66.43</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>015436</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>建信优化配置混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>014104</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>000994</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>010194</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>66.43</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>013772</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>中加龙头精选混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>008319</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>博道久航混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>76.55</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>005189</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>010503</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>招商稳兴混合A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>37.98</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>004557</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>64.59</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>014176</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>工银价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>66.94</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>002573</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>建信汇利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>014136</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>中欧金安量化混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>78.49</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>008091</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>011607</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>008092</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>007045</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>博道沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>570006</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>诺德中小盘混合</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>009855</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>70.32</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>350007</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>天治趋势精选混合</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>013760</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>招商精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>69.21</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>005551</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>汇安成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>005290</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>850006</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>71.13</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>000995</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>001638</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>005550</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>汇安成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>009856</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>70.32</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>004937</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>中航混改精选混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>007244</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>62.10</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>005188</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>519099</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>新华灵活主题混合</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>81.48</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>009194</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>泰达宏利中证申万绩优策略指数增强A</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>012808</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>005949</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>53.61</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>014609</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>006161</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>博道启航混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>013324</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>国寿安保盛泽三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>63.73</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>61.34</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>016347</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）E</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>014863</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>建信信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>007257</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>凯石沣混合A</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>70.00</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>850688</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>71.13</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>001902</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>38.21</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>009195</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>泰达宏利中证申万绩优策略指数增强C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>006957</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>970009</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>163821</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>中银沪深300等权重指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>011494</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合发起A</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>011424</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>002158</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>汇添富安鑫智选混合C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>60.55</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>001419</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>泰达宏利新思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>33.42</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>004936</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>中航混改精选混合A</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>007258</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>凯石沣混合C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>70.00</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>850699</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>71.13</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>002860</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>42.74</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>014069</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>工银悦享混合C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>62.82</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>011495</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合发起C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>015558</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>万家中证红利指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>006911</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票A</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>012241</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>工银量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>005950</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>53.61</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G208" t="n">
+        <v>0</v>
+      </c>
+      <c r="H208" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>015179</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合C</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G209" t="n">
+        <v>0</v>
+      </c>
+      <c r="H209" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>015180</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合D</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G210" t="n">
+        <v>0</v>
+      </c>
+      <c r="H210" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>015526</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合C</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>76.55</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G211" t="n">
+        <v>0</v>
+      </c>
+      <c r="H211" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>010195</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>66.43</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G212" t="n">
+        <v>0</v>
+      </c>
+      <c r="H212" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>002314</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>泰达宏利新思路灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>33.42</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G213" t="n">
+        <v>0</v>
+      </c>
+      <c r="H213" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>015147</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>华夏兴融灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G214" t="n">
+        <v>0</v>
+      </c>
+      <c r="H214" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>015947</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G215" t="n">
+        <v>0</v>
+      </c>
+      <c r="H215" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>010504</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>招商稳兴混合C</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>37.98</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G216" t="n">
+        <v>0</v>
+      </c>
+      <c r="H216" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>016814</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数C</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G217" t="n">
+        <v>0</v>
+      </c>
+      <c r="H217" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6097,7 +14358,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13791,7 +22052,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600188-兖矿能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600188-兖矿能源.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>216</v>
+        <v>99</v>
       </c>
       <c r="D2" t="n">
-        <v>103.11</v>
+        <v>33.75</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>145</v>
+        <v>216</v>
       </c>
       <c r="D3" t="n">
-        <v>61.82</v>
+        <v>103.11</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>201</v>
+        <v>145</v>
       </c>
       <c r="D4" t="n">
-        <v>62.85</v>
+        <v>61.82</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>201</v>
+      </c>
+      <c r="D5" t="n">
+        <v>62.85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>54</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>27.77</v>
       </c>
     </row>
@@ -549,6 +566,3818 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3398</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>45.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7759</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7268</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001832</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达瑞恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.6823</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>530005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信优化配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0563</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519008</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富优势精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5198</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3066</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2712</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>59.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2284</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013275</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9720</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014967</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9121</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013919</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8660</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000173</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8426</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011790</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8008</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519018</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富均衡增长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>28.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7451</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6313</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5269</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>26.42</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4306</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3980</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001980</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>41.33</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3720</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>217002</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商安泰平衡混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>49.54</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3658</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010594</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发睿选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3178</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004046</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏新锦顺灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>24.34</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>71.43</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2896</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>15.63</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2735</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002317</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商睿逸稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>49.57</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2720</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003624</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2471</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2178</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013050</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1880</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003625</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1839</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1788</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1782</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>561300</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国泰沪深300增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>11.40</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>96.37</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1721</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1634</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1549</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013049</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1415</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1316</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007733</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方智锐混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1184</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008682</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1134</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014103</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1122</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014653</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>建信卓越成长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>161132</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>易方达科顺定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012964</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>61.95</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005945</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>工银可转债优选债券A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>38.35</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>72.88</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009710</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009840</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>014175</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>工银价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>73.24</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>519095</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>新华行业周期轮换混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014068</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>工银悦享混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>74.40</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012963</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>61.95</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009246</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>大摩ESG量化混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012879</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>70.35</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011376</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华宝安享混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>24.21</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008736</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>南方高股息主题股票A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>003169</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长盛盛辉混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>35.42</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>229002</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>泰达宏利逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>970042</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国海量化优选一年持有股票C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001017</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>015947</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009841</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002000</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>工银新生利混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>28.98</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>万家中证红利指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005946</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>工银可转债优选债券C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>38.35</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>016814</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>007734</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>南方智锐混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>013759</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>招商精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>55.24</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>012878</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>70.35</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>004047</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华夏新锦顺灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>71.43</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001272</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>兴业聚利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>77.61</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>014104</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>014654</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>建信卓越成长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>015436</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>建信优化配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>003170</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>长盛盛辉混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>35.42</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>014176</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>工银价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>73.24</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>014608</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>005550</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>汇安成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>013760</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>招商精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>55.24</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>005290</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>008737</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>南方高股息主题股票C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>970041</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>国海量化优选一年持有股票A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>005551</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>汇安成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>014609</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>015558</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>万家中证红利指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>014863</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>建信信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>014069</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>工银悦享混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>003550</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>015526</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>015179</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>015180</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合D</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8792,7 +12621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14358,7 +18187,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -22052,7 +25881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
